--- a/勤怠情報管理テーブル定義書.xlsx
+++ b/勤怠情報管理テーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399CB8D5-0B93-EB45-A4BB-19D98462D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC08A966-5105-8B4A-89AF-0E027DEE77B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1420" windowWidth="31160" windowHeight="17300" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="1480" windowWidth="31160" windowHeight="17300" tabRatio="761" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="111">
   <si>
     <t>システム名</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>更新日時</t>
-  </si>
-  <si>
-    <t>更新者</t>
   </si>
   <si>
     <t>作成日</t>
@@ -410,12 +407,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>employee_id</t>
-  </si>
-  <si>
-    <t>employee_name</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -428,13 +419,7 @@
     <t>create_date</t>
   </si>
   <si>
-    <t>create_user</t>
-  </si>
-  <si>
     <t>update_date</t>
-  </si>
-  <si>
-    <t>update_user</t>
   </si>
   <si>
     <t>employee_email</t>
@@ -558,6 +543,50 @@
   </si>
   <si>
     <t>t_attendance</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>employee_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>record_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>employee_id+attendace_date+順番</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>create_user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emplyee_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update_user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新者id</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1568,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F086F-26AC-4114-B742-94502A035963}">
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1582,16 +1611,16 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>52</v>
-      </c>
       <c r="E3" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1599,13 +1628,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1613,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1627,13 +1656,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1641,13 +1670,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1655,13 +1684,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1669,13 +1698,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1709,7 +1738,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1743,15 +1772,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -1760,7 +1789,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -1783,11 +1812,11 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1814,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -1832,10 +1861,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -1844,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D7" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="23" t="s">
@@ -1861,7 +1890,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="14"/>
     </row>
@@ -1870,7 +1899,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -1880,12 +1909,12 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -1894,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>10</v>
@@ -1904,12 +1933,12 @@
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -1918,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
@@ -1931,7 +1960,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -1940,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>12</v>
@@ -1957,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="17"/>
     </row>
@@ -1966,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>13</v>
@@ -1986,29 +2015,31 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D13" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="24"/>
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="15">
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>13</v>
@@ -2028,29 +2059,31 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D15" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="24"/>
       <c r="G15" s="17"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="15">
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>10</v>
@@ -2063,7 +2096,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J16" s="17"/>
     </row>
@@ -2143,7 +2176,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2177,15 +2210,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -2194,7 +2227,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -2217,11 +2250,11 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2248,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -2266,121 +2299,123 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="15">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12" customHeight="1">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="15">
         <v>10</v>
-      </c>
-      <c r="D7" s="12">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="12" customHeight="1">
-      <c r="A8" s="15">
-        <v>2</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>57</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
-      <c r="A9" s="15">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D9" s="15">
         <v>5</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
-      <c r="A10" s="15">
+      <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="D10" s="15">
-        <v>4</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2</v>
-      </c>
-      <c r="F10" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
-      <c r="A11" s="15">
+      <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>12</v>
@@ -2395,16 +2430,16 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
-      <c r="A12" s="15">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>12</v>
@@ -2419,16 +2454,16 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
-      <c r="A13" s="15">
+      <c r="A13" s="1">
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>12</v>
@@ -2443,172 +2478,190 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
-      <c r="A14" s="15">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
       <c r="F14" s="24"/>
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
-      <c r="A15" s="15">
+      <c r="A15" s="1">
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D15" s="15">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="24"/>
       <c r="G15" s="17"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
-      <c r="A16" s="15">
+      <c r="A16" s="1">
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="D16" s="15">
+        <v>200</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="24"/>
       <c r="G16" s="17"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
-      <c r="A17" s="15">
+      <c r="A17" s="1">
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="15">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="F17" s="24"/>
       <c r="G17" s="17"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
-      <c r="A18" s="15">
+      <c r="A18" s="1">
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="D18" s="15">
+        <v>5</v>
+      </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
-      <c r="A19" s="15">
+      <c r="A19" s="1">
         <v>13</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="15">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="24"/>
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
-      <c r="A20" s="15">
+      <c r="A20" s="1">
         <v>14</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D20" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="24"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
+      <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="24"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
@@ -2675,7 +2728,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2711,15 +2764,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -2728,7 +2781,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -2751,11 +2804,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2782,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -2800,10 +2853,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="37"/>
       <c r="L6" s="56"/>
@@ -2814,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>10</v>
@@ -2831,10 +2884,10 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2842,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>10</v>
@@ -2855,7 +2908,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="46"/>
     </row>
@@ -2864,7 +2917,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>12</v>
@@ -2881,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -2890,7 +2943,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>12</v>
@@ -2907,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -2916,7 +2969,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>13</v>
@@ -2936,29 +2989,31 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D12" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="24"/>
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="12" customHeight="1">
       <c r="A13" s="43">
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>13</v>
@@ -2978,22 +3033,24 @@
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D14" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="24"/>
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1">
       <c r="A15" s="15"/>
@@ -3084,7 +3141,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+      <selection activeCell="B10" sqref="B10:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3118,15 +3175,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -3135,7 +3192,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -3158,11 +3215,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3189,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -3207,10 +3264,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -3219,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -3236,11 +3293,11 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1">
@@ -3248,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>10</v>
@@ -3261,7 +3318,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -3270,7 +3327,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>12</v>
@@ -3287,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -3296,9 +3353,9 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="15"/>
@@ -3316,29 +3373,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D11" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="24"/>
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
       <c r="A12" s="15">
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>13</v>
@@ -3358,22 +3417,24 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D13" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="24"/>
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
       <c r="A14" s="15"/>
@@ -3463,7 +3524,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B10" sqref="B10:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3497,15 +3558,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -3514,7 +3575,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -3537,11 +3598,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3568,7 +3629,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -3586,10 +3647,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -3598,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -3615,11 +3676,11 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1">
@@ -3627,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>12</v>
@@ -3642,7 +3703,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -3651,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>12</v>
@@ -3668,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -3677,9 +3738,9 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="15"/>
@@ -3697,29 +3758,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D11" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="24"/>
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
       <c r="A12" s="15">
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>13</v>
@@ -3739,22 +3802,24 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D13" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="24"/>
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
       <c r="A14" s="15"/>
@@ -3843,8 +3908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8427E8D5-5CFC-4AAE-AD7E-D94DD8AB6A75}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3878,15 +3943,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -3895,7 +3960,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -3918,11 +3983,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3949,7 +4014,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -3967,10 +4032,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -3979,10 +4044,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
@@ -3994,11 +4059,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1">
@@ -4006,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>10</v>
@@ -4019,7 +4084,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -4028,7 +4093,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>12</v>
@@ -4045,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -4054,9 +4119,9 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="15"/>
@@ -4074,29 +4139,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D11" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="24"/>
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
       <c r="A12" s="15">
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>13</v>
@@ -4116,22 +4183,24 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D13" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="24"/>
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
       <c r="A14" s="15"/>

--- a/勤怠情報管理テーブル定義書.xlsx
+++ b/勤怠情報管理テーブル定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC08A966-5105-8B4A-89AF-0E027DEE77B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF803817-FF3F-AF40-B053-4614527364FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="1480" windowWidth="31160" windowHeight="17300" tabRatio="761" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
   <si>
     <t>システム名</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>主キー</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
   </si>
   <si>
     <t>Y</t>
@@ -114,9 +111,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワード</t>
-  </si>
-  <si>
     <t>所属部門ID</t>
     <rPh sb="0" eb="2">
       <t>ショゾク</t>
@@ -586,6 +580,10 @@
   </si>
   <si>
     <t>更新者id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1611,16 +1609,16 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1628,13 +1626,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1642,13 +1640,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1656,13 +1654,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1670,13 +1668,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="60" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1684,13 +1682,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1698,13 +1696,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1738,7 +1736,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1772,15 +1770,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -1789,7 +1787,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -1812,11 +1810,11 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1843,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -1861,10 +1859,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -1873,24 +1871,24 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12">
         <v>5</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="14"/>
     </row>
@@ -1899,22 +1897,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="D8" s="15">
         <v>100</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -1923,22 +1921,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D9" s="15">
         <v>8</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -1947,10 +1945,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D10" s="15">
         <v>10</v>
@@ -1960,7 +1958,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -1969,10 +1967,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -1986,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" s="17"/>
     </row>
@@ -1995,10 +1993,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
@@ -2006,7 +2004,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="17"/>
     </row>
@@ -2015,10 +2013,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="15">
         <v>5</v>
@@ -2028,10 +2026,10 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
@@ -2039,10 +2037,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
@@ -2050,7 +2048,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="17"/>
     </row>
@@ -2059,10 +2057,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="15">
         <v>5</v>
@@ -2072,10 +2070,10 @@
       <c r="G15" s="17"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -2083,10 +2081,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D16" s="15">
         <v>50</v>
@@ -2096,7 +2094,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J16" s="17"/>
     </row>
@@ -2210,15 +2208,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -2227,7 +2225,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -2250,11 +2248,11 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2281,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -2299,10 +2297,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -2311,27 +2309,27 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="15">
         <v>15</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
@@ -2339,22 +2337,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="15">
         <v>10</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -2363,25 +2361,25 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="15">
         <v>5</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
@@ -2389,25 +2387,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="15">
         <v>5</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
@@ -2415,10 +2413,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="15">
         <v>4</v>
@@ -2430,7 +2428,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J11" s="17"/>
     </row>
@@ -2439,10 +2437,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="15">
         <v>4</v>
@@ -2454,7 +2452,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J12" s="17"/>
     </row>
@@ -2463,10 +2461,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="15">
         <v>4</v>
@@ -2478,7 +2476,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J13" s="17"/>
     </row>
@@ -2487,10 +2485,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="15">
         <v>4</v>
@@ -2502,7 +2500,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J14" s="17"/>
     </row>
@@ -2511,10 +2509,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -2524,7 +2522,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J15" s="17"/>
     </row>
@@ -2533,10 +2531,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="15">
         <v>200</v>
@@ -2546,7 +2544,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J16" s="17"/>
     </row>
@@ -2555,10 +2553,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
@@ -2566,7 +2564,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="17"/>
     </row>
@@ -2575,25 +2573,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="15">
         <v>5</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
@@ -2601,10 +2599,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
@@ -2612,7 +2610,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="17"/>
     </row>
@@ -2621,10 +2619,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="15">
         <v>10</v>
@@ -2634,10 +2632,10 @@
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
@@ -2645,10 +2643,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -2660,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J21" s="17"/>
     </row>
@@ -2728,7 +2726,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2764,15 +2762,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -2781,7 +2779,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -2804,11 +2802,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2835,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -2853,10 +2851,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="37"/>
       <c r="L6" s="56"/>
@@ -2867,27 +2865,27 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D7" s="12">
         <v>10</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2895,10 +2893,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D8" s="43">
         <v>2</v>
@@ -2908,7 +2906,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="46"/>
     </row>
@@ -2917,10 +2915,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -2934,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -2943,10 +2941,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -2960,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -2969,10 +2967,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
@@ -2980,7 +2978,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="17"/>
     </row>
@@ -2989,10 +2987,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="15">
         <v>5</v>
@@ -3002,10 +3000,10 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="12" customHeight="1">
@@ -3013,10 +3011,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
@@ -3024,7 +3022,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="17"/>
     </row>
@@ -3033,10 +3031,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="15">
         <v>5</v>
@@ -3046,10 +3044,10 @@
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1">
@@ -3141,7 +3139,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3175,15 +3173,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -3192,7 +3190,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -3215,11 +3213,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3246,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -3264,10 +3262,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -3276,28 +3274,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D7" s="12">
         <v>10</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1">
@@ -3305,10 +3303,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D8" s="43">
         <v>100</v>
@@ -3318,7 +3316,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -3327,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -3344,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -3353,10 +3351,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
@@ -3364,7 +3362,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -3373,10 +3371,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="15">
         <v>5</v>
@@ -3386,10 +3384,10 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
@@ -3397,10 +3395,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
@@ -3408,7 +3406,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="17"/>
     </row>
@@ -3417,10 +3415,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="15">
         <v>5</v>
@@ -3430,10 +3428,10 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
@@ -3524,7 +3522,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3558,15 +3556,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -3575,7 +3573,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -3598,11 +3596,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3629,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -3647,10 +3645,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -3659,28 +3657,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D7" s="12">
         <v>7</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1">
@@ -3688,10 +3686,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
@@ -3703,7 +3701,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -3712,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -3729,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -3738,10 +3736,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
@@ -3749,7 +3747,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -3758,10 +3756,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="15">
         <v>5</v>
@@ -3771,10 +3769,10 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
@@ -3782,10 +3780,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
@@ -3793,7 +3791,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="17"/>
     </row>
@@ -3802,10 +3800,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="15">
         <v>5</v>
@@ -3815,10 +3813,10 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
@@ -3909,7 +3907,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3943,15 +3941,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -3960,7 +3958,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="59">
         <v>44812</v>
@@ -3983,11 +3981,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4014,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -4032,10 +4030,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -4044,10 +4042,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
@@ -4059,11 +4057,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1">
@@ -4071,10 +4069,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D8" s="15">
         <v>100</v>
@@ -4084,7 +4082,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -4093,10 +4091,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -4110,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -4119,10 +4117,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
@@ -4130,7 +4128,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -4139,10 +4137,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="15">
         <v>5</v>
@@ -4152,10 +4150,10 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
@@ -4163,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
@@ -4174,7 +4172,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="17"/>
     </row>
@@ -4183,10 +4181,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="15">
         <v>5</v>
@@ -4196,10 +4194,10 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
